--- a/sys_ROMANCE.xlsx
+++ b/sys_ROMANCE.xlsx
@@ -313,34 +313,34 @@
     <t>Romance</t>
   </si>
   <si>
-    <t>tez</t>
-  </si>
-  <si>
-    <t>kin</t>
-  </si>
-  <si>
-    <t>shi</t>
-  </si>
-  <si>
-    <t>asa</t>
-  </si>
-  <si>
-    <t>sev</t>
-  </si>
-  <si>
-    <t>com</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>j.c</t>
-  </si>
-  <si>
-    <t>clo</t>
-  </si>
-  <si>
-    <t>a-1</t>
+    <t>tezu</t>
+  </si>
+  <si>
+    <t>kine</t>
+  </si>
+  <si>
+    <t>shin</t>
+  </si>
+  <si>
+    <t>asah</t>
+  </si>
+  <si>
+    <t>seve</t>
+  </si>
+  <si>
+    <t>comi</t>
+  </si>
+  <si>
+    <t>madh</t>
+  </si>
+  <si>
+    <t>j.c.</t>
+  </si>
+  <si>
+    <t>clov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-1 </t>
   </si>
 </sst>
 </file>

--- a/sys_ROMANCE.xlsx
+++ b/sys_ROMANCE.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>Cube</t>
+    <t>role code</t>
   </si>
   <si>
     <t>ichikanakano</t>

--- a/sys_ROMANCE.xlsx
+++ b/sys_ROMANCE.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>role code</t>
+    <t>Cube</t>
   </si>
   <si>
     <t>ichikanakano</t>
@@ -313,34 +313,34 @@
     <t>Romance</t>
   </si>
   <si>
-    <t>tezu</t>
-  </si>
-  <si>
-    <t>kine</t>
-  </si>
-  <si>
-    <t>shin</t>
-  </si>
-  <si>
-    <t>asah</t>
-  </si>
-  <si>
-    <t>seve</t>
-  </si>
-  <si>
-    <t>comi</t>
-  </si>
-  <si>
-    <t>madh</t>
-  </si>
-  <si>
-    <t>j.c.</t>
-  </si>
-  <si>
-    <t>clov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a-1 </t>
+    <t>tez</t>
+  </si>
+  <si>
+    <t>kin</t>
+  </si>
+  <si>
+    <t>shi</t>
+  </si>
+  <si>
+    <t>asa</t>
+  </si>
+  <si>
+    <t>sev</t>
+  </si>
+  <si>
+    <t>com</t>
+  </si>
+  <si>
+    <t>mad</t>
+  </si>
+  <si>
+    <t>j.c</t>
+  </si>
+  <si>
+    <t>clo</t>
+  </si>
+  <si>
+    <t>a-1</t>
   </si>
 </sst>
 </file>

--- a/sys_ROMANCE.xlsx
+++ b/sys_ROMANCE.xlsx
@@ -25,7 +25,7 @@
     <t>System1</t>
   </si>
   <si>
-    <t>Cube</t>
+    <t>role code</t>
   </si>
   <si>
     <t>ichikanakano</t>
@@ -313,34 +313,34 @@
     <t>Romance</t>
   </si>
   <si>
-    <t>tez</t>
-  </si>
-  <si>
-    <t>kin</t>
-  </si>
-  <si>
-    <t>shi</t>
-  </si>
-  <si>
-    <t>asa</t>
-  </si>
-  <si>
-    <t>sev</t>
-  </si>
-  <si>
-    <t>com</t>
-  </si>
-  <si>
-    <t>mad</t>
-  </si>
-  <si>
-    <t>j.c</t>
-  </si>
-  <si>
-    <t>clo</t>
-  </si>
-  <si>
-    <t>a-1</t>
+    <t>tezu</t>
+  </si>
+  <si>
+    <t>kine</t>
+  </si>
+  <si>
+    <t>shin</t>
+  </si>
+  <si>
+    <t>asah</t>
+  </si>
+  <si>
+    <t>seve</t>
+  </si>
+  <si>
+    <t>comi</t>
+  </si>
+  <si>
+    <t>madh</t>
+  </si>
+  <si>
+    <t>j.c.</t>
+  </si>
+  <si>
+    <t>clov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a-1 </t>
   </si>
 </sst>
 </file>
